--- a/data/trans_camb/P19C08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.2637278316139469</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.7586276567577454</v>
+        <v>0.7586276567577451</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5602685051330927</v>
+        <v>-0.5566651093680216</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.340061774129359</v>
+        <v>-1.350449643111287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2615355987461422</v>
+        <v>-0.2627146155504669</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2096805233601862</v>
+        <v>-0.225722923943525</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.121687398732622</v>
+        <v>-1.326129979174762</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.2630375143300946</v>
+        <v>-0.2633723403258892</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1515331649399149</v>
+        <v>-0.09117513596426194</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.078471295276718</v>
+        <v>-0.9230599048236232</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.03807475682743267</v>
+        <v>-0.02987448015456203</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.240591769484039</v>
+        <v>0.999593192473806</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.562860258264179</v>
+        <v>3.684872287961547</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.306168289033118</v>
+        <v>2.292235399599228</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.602112244064903</v>
+        <v>2.909581725782316</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.437920506404971</v>
+        <v>1.450042272070852</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.606143510248319</v>
+        <v>2.336440948886948</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-1</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.876555167177989</v>
+        <v>2.876555167177988</v>
       </c>
     </row>
     <row r="8">
@@ -785,7 +785,9 @@
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.7063735658122404</v>
+      </c>
       <c r="J8" s="6" t="inlineStr"/>
       <c r="K8" s="6" t="inlineStr"/>
     </row>
@@ -853,31 +855,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5327232753988798</v>
+        <v>-0.5084325684869332</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.526726465303977</v>
+        <v>-1.324040059219441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7888611878477212</v>
+        <v>-0.7058384992006969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9775469915467463</v>
+        <v>-0.9258015402986715</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.984344226172882</v>
+        <v>-1.802081171647244</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.444871746860015</v>
+        <v>-1.511541945314531</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.3870497428240011</v>
+        <v>-0.3983418103008169</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.287350479228268</v>
+        <v>-1.208103818725883</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.8013556424932894</v>
+        <v>-0.8166828529371231</v>
       </c>
     </row>
     <row r="12">
@@ -888,31 +890,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.627163956979441</v>
+        <v>1.467291844361357</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1620689262930798</v>
+        <v>-0.1603225247674046</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.039860422440642</v>
+        <v>2.199686436322928</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.159638951390941</v>
+        <v>1.305804313152183</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1467498781199015</v>
+        <v>-0.1473050444516253</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3163779242313593</v>
+        <v>0.2385508881074712</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.102743950418918</v>
+        <v>1.119321677239134</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.232549549017516</v>
+        <v>-0.2394622496011011</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8604160662513561</v>
+        <v>0.6585138783312673</v>
       </c>
     </row>
     <row r="13">
@@ -958,20 +960,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8659103945094697</v>
+        <v>-0.8892951663212771</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.5608423331378173</v>
+        <v>-0.6185697978461809</v>
       </c>
       <c r="J14" s="6" t="inlineStr"/>
-      <c r="K14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="K14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -983,16 +985,16 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>7.385034246605096</v>
+      </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4.540109464320374</v>
+        <v>3.925651422379582</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
-      <c r="K15" s="6" t="n">
-        <v>4.399962262481444</v>
-      </c>
+      <c r="K15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1012,7 +1014,7 @@
         <v>-0.1681562390498961</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2397265449916724</v>
+        <v>0.2397265449916723</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.5153853130795945</v>
@@ -1030,7 +1032,7 @@
         <v>-0.03443564258509896</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.3078001003216877</v>
+        <v>0.3078001003216876</v>
       </c>
     </row>
     <row r="17">
@@ -1041,31 +1043,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7277141262346828</v>
+        <v>-0.7539735734896058</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8774530106275552</v>
+        <v>-0.7131257513422872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4652844649760633</v>
+        <v>-0.480282880808667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3000752572101184</v>
+        <v>-0.2837385937130553</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.5460243596308608</v>
+        <v>-0.5651363963288698</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.398357305126157</v>
+        <v>-0.3883786526028098</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2939469980978432</v>
+        <v>-0.3025834649447481</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.5181042162043679</v>
+        <v>-0.5063920164915389</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.2057611558345477</v>
+        <v>-0.2382263333442524</v>
       </c>
     </row>
     <row r="18">
@@ -1076,31 +1078,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6607210889471102</v>
+        <v>0.6513626986601027</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3714675171259124</v>
+        <v>0.3840594243418581</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.21689464782821</v>
+        <v>1.33437888552912</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.431571800429349</v>
+        <v>1.451239075922284</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.081500264768796</v>
+        <v>1.101557540635779</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.050404713885762</v>
+        <v>1.221505494889721</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7768996740407086</v>
+        <v>0.8331570882619677</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4806107281699789</v>
+        <v>0.4942866649949774</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8728618712433553</v>
+        <v>0.9348466639819414</v>
       </c>
     </row>
     <row r="19">
@@ -1117,7 +1119,7 @@
         <v>-0.4786818465499184</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.6824174105701536</v>
+        <v>0.6824174105701534</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.446663718424755</v>
@@ -1135,7 +1137,7 @@
         <v>-0.09727584843269904</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8694920047584183</v>
+        <v>0.869492004758418</v>
       </c>
     </row>
     <row r="20">
@@ -1148,21 +1150,17 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
-      <c r="F20" s="6" t="n">
-        <v>-0.8572218665567881</v>
-      </c>
+      <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.7476635131264677</v>
+        <v>-0.7564318352408945</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5210287509494133</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6092275914460443</v>
+      </c>
+      <c r="J20" s="6" t="inlineStr"/>
       <c r="K20" s="6" t="n">
-        <v>-0.5118188662590678</v>
+        <v>-0.5208862192831851</v>
       </c>
     </row>
     <row r="21">
@@ -1179,13 +1177,11 @@
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>5.686993554668772</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>4.127452314776769</v>
-      </c>
+        <v>6.655517188811358</v>
+      </c>
+      <c r="J21" s="6" t="inlineStr"/>
       <c r="K21" s="6" t="n">
-        <v>6.031925942577066</v>
+        <v>8.307421369924214</v>
       </c>
     </row>
     <row r="22">
@@ -1224,7 +1220,7 @@
         <v>-0.4494276898152192</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.1891458555254221</v>
+        <v>-0.189145855525422</v>
       </c>
     </row>
     <row r="23">
@@ -1235,31 +1231,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4901138923368084</v>
+        <v>-0.5322685541522864</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.575161153424283</v>
+        <v>-1.539284089663881</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.40840730936407</v>
+        <v>-1.347112227087368</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6869411452511346</v>
+        <v>-0.6962032854976684</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.6366616876602</v>
+        <v>-1.567577616235692</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.087919304251426</v>
+        <v>-1.255536274492397</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3378585705979785</v>
+        <v>-0.3978623037034048</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.059567054690447</v>
+        <v>-1.140061525496469</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8442512266852253</v>
+        <v>-0.8489876108109714</v>
       </c>
     </row>
     <row r="24">
@@ -1270,31 +1266,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.240083317324214</v>
+        <v>1.888866130867615</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1661786094205685</v>
+        <v>0.1665853969897827</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.373212609685439</v>
+        <v>1.321846365930411</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.431214066255847</v>
+        <v>0.4291235986562864</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.187187442328079</v>
+        <v>1.182485213030409</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.1101989162543383</v>
+        <v>-0.1101413160716514</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2214393185676296</v>
+        <v>0.2384816750660111</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1325,7 @@
         <v>-1</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4208593725126032</v>
+        <v>-0.4208593725126031</v>
       </c>
     </row>
     <row r="26">
@@ -1346,11 +1342,11 @@
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.5920691577732696</v>
+        <v>-0.7203604401209629</v>
       </c>
       <c r="J26" s="6" t="inlineStr"/>
       <c r="K26" s="6" t="n">
-        <v>-0.8976140462554334</v>
+        <v>-0.9244999632923628</v>
       </c>
     </row>
     <row r="27">
@@ -1367,11 +1363,11 @@
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>6.749325067887471</v>
+        <v>8.10340921571936</v>
       </c>
       <c r="J27" s="6" t="inlineStr"/>
       <c r="K27" s="6" t="n">
-        <v>2.325069251341571</v>
+        <v>2.479692150636569</v>
       </c>
     </row>
     <row r="28">
@@ -1392,7 +1388,7 @@
         <v>0.5897606834203385</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.5139354187055537</v>
+        <v>0.5139354187055536</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.6231890094584547</v>
@@ -1410,7 +1406,7 @@
         <v>0.07537933210187338</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.09182162283456027</v>
+        <v>0.09182162283456036</v>
       </c>
     </row>
     <row r="29">
@@ -1427,25 +1423,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1544255018949974</v>
+        <v>0.1547603336458763</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.907170934103137</v>
+        <v>-2.193129815989747</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.842598788056529</v>
+        <v>-1.642089051944424</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.556328875813313</v>
+        <v>-1.709318986299613</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.8662365699762664</v>
+        <v>-0.9032478274596757</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.6804997349634965</v>
+        <v>-0.5828855495026949</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5641836725764976</v>
+        <v>-0.681857906288734</v>
       </c>
     </row>
     <row r="30">
@@ -1456,31 +1452,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.447884121494389</v>
+        <v>1.298469305882971</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.099841079221775</v>
+        <v>2.095069164542728</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.279842714973651</v>
+        <v>1.435599117961263</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2455680073271388</v>
+        <v>0.2774086916241491</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4524985405222772</v>
+        <v>0.3860338435651372</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2293746485708748</v>
+        <v>0.2023171044525502</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6725256106014061</v>
+        <v>0.7222121805602845</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.567579319914621</v>
+        <v>0.5588508455543855</v>
       </c>
     </row>
     <row r="31">
@@ -1521,7 +1517,7 @@
         <v>0.2241996262557762</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.273103687014436</v>
+        <v>0.2731036870144363</v>
       </c>
     </row>
     <row r="32">
@@ -1540,7 +1536,7 @@
       <c r="I32" s="6" t="inlineStr"/>
       <c r="J32" s="6" t="inlineStr"/>
       <c r="K32" s="6" t="n">
-        <v>-0.885814588319922</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -1607,31 +1603,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.442816199458069</v>
+        <v>-1.710246815106223</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.390324603047538</v>
+        <v>-1.452699071115879</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.711694737775085</v>
+        <v>-1.632550193515357</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.784174166317535</v>
+        <v>-2.606976683182953</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.628577396588878</v>
+        <v>-2.610011975749497</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.199016723797341</v>
+        <v>-2.021101102369542</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.464319419938911</v>
+        <v>-1.474032628416708</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.438039016825036</v>
+        <v>-1.457798763046171</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.233160611285219</v>
+        <v>-1.305730969431739</v>
       </c>
     </row>
     <row r="36">
@@ -1642,13 +1638,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.7733884575959005</v>
+        <v>0.7698459199620797</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.7991050604449432</v>
+        <v>0.8036743907603653</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.6276544162120201</v>
+        <v>0.6318469628486083</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>0</v>
@@ -1657,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.5476168251241031</v>
+        <v>0.4556111235771137</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.1529565443549692</v>
+        <v>0.1242951330192309</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.180516478528774</v>
+        <v>0.1563930814069318</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.4131258114283771</v>
+        <v>0.4257578381934545</v>
       </c>
     </row>
     <row r="37">
@@ -1720,7 +1716,7 @@
       <c r="I38" s="6" t="inlineStr"/>
       <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>-0.8873448710934033</v>
+        <v>-0.8869242081375333</v>
       </c>
     </row>
     <row r="39">
@@ -1738,9 +1734,7 @@
       <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="inlineStr"/>
       <c r="J39" s="6" t="inlineStr"/>
-      <c r="K39" s="6" t="n">
-        <v>3.558852634735598</v>
-      </c>
+      <c r="K39" s="6" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1789,29 +1783,29 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.4284926860680852</v>
+        <v>0.426551003131921</v>
       </c>
       <c r="D41" s="5" t="inlineStr"/>
       <c r="E41" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.413991797738136</v>
+        <v>-3.916940679740373</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.33533596627769</v>
+        <v>-2.765888611806756</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.598550869033607</v>
+        <v>-3.222422423204402</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.389837298131474</v>
+        <v>-1.523821516489491</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.407364457630703</v>
+        <v>-1.471035604492625</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.832315770886125</v>
+        <v>-1.759525099371996</v>
       </c>
     </row>
     <row r="42">
@@ -1822,29 +1816,29 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.070337692075755</v>
+        <v>3.883334297278005</v>
       </c>
       <c r="D42" s="5" t="inlineStr"/>
       <c r="E42" s="5" t="n">
-        <v>1.831079489421816</v>
+        <v>1.703608467575036</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.848462541805827</v>
+        <v>1.59655832697542</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.2650188740698672</v>
+        <v>0.2673573969774122</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.9636378934740536</v>
+        <v>0.9639684500822053</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.204937489553801</v>
+        <v>1.008517344658908</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.3920402656284086</v>
+        <v>0.39989371335764</v>
       </c>
     </row>
     <row r="43">
@@ -1954,7 +1948,7 @@
         <v>-0.2644183245989359</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.03900068207914019</v>
+        <v>0.03900068207914027</v>
       </c>
     </row>
     <row r="47">
@@ -1965,31 +1959,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.08343592101599628</v>
+        <v>-0.08019760626395356</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.4927415410211559</v>
+        <v>-0.4969809529834959</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.143403978332211</v>
+        <v>-0.1266275401074334</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.3469020581619781</v>
+        <v>-0.3063599266187105</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.6726262857558075</v>
+        <v>-0.6845321373723732</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.4756915293236425</v>
+        <v>-0.4493904047029311</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.1423315033681391</v>
+        <v>-0.1429812540850768</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.4942979254268134</v>
+        <v>-0.4911907255624646</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.1983174315590364</v>
+        <v>-0.2347789061099002</v>
       </c>
     </row>
     <row r="48">
@@ -2000,31 +1994,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.6747078694499402</v>
+        <v>0.7499607937223819</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.04761440455035026</v>
+        <v>0.07314716902340807</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.6087945158488692</v>
+        <v>0.588797181275086</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.4489081673900964</v>
+        <v>0.4928908303676646</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.00387460830746036</v>
+        <v>-0.02796050952988091</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.2373059116726623</v>
+        <v>0.2462239726589194</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.432799692945291</v>
+        <v>0.4267855428284973</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.06201621182785765</v>
+        <v>-0.0625288408030665</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.3068687381038012</v>
+        <v>0.288170832631189</v>
       </c>
     </row>
     <row r="49">
@@ -2059,7 +2053,7 @@
         <v>-0.5927684839199049</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.08743106296796785</v>
+        <v>0.08743106296796804</v>
       </c>
     </row>
     <row r="50">
@@ -2070,31 +2064,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2893823098423451</v>
+        <v>-0.2432897139428386</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8865805301017365</v>
+        <v>-0.9256577587186315</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3625976108768867</v>
+        <v>-0.336278926143717</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4556343208898327</v>
+        <v>-0.45345639970356</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.8866267224849027</v>
+        <v>-0.8978226172042334</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6017479073069435</v>
+        <v>-0.5727738848830384</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.266855264715868</v>
+        <v>-0.2641977588705644</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.8357270931066075</v>
+        <v>-0.8391236630127883</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3783605563735641</v>
+        <v>-0.4011898018456539</v>
       </c>
     </row>
     <row r="51">
@@ -2105,31 +2099,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>3.346920358458853</v>
+        <v>3.689046815297753</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5352597129988697</v>
+        <v>0.4807126132330873</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.984525551034757</v>
+        <v>3.188322129919086</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.441177982416564</v>
+        <v>1.557700095669017</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1347764851416482</v>
+        <v>0.1285280787066059</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.7538657691451374</v>
+        <v>0.7624337172513496</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.254076753650419</v>
+        <v>1.347340940801841</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1283190978228514</v>
+        <v>-0.1284182898492494</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.000320648768763</v>
+        <v>0.9158431325593914</v>
       </c>
     </row>
     <row r="52">
